--- a/2020/January/All Details/19.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/19.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\18.01.2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\19.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BAACDC-10FD-4E2C-B930-656DCC25F50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1968C492-42CE-435A-B855-F106A96B3614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -184,13 +184,16 @@
     <t>18.01.2020</t>
   </si>
   <si>
-    <t>Jafor + Hand</t>
+    <t>Date: 19.01.2020</t>
   </si>
   <si>
-    <t>Date: 18.01.2020</t>
+    <t>19.01.2020</t>
   </si>
   <si>
-    <t>Symphony  Balance(-)</t>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Symphony  Balance(+)</t>
   </si>
 </sst>
 </file>
@@ -2028,7 +2031,7 @@
   <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -2438,9 +2441,15 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="60"/>
-      <c r="B24" s="66"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
+      <c r="B24" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="64">
+        <v>680000</v>
+      </c>
+      <c r="D24" s="88">
+        <v>680000</v>
+      </c>
       <c r="E24" s="96">
         <f t="shared" si="0"/>
         <v>8000</v>
@@ -3147,11 +3156,11 @@
       <c r="B83" s="72"/>
       <c r="C83" s="67">
         <f>SUM(C5:C72)</f>
-        <v>4408000</v>
+        <v>5088000</v>
       </c>
       <c r="D83" s="67">
         <f>SUM(D5:D77)</f>
-        <v>4400000</v>
+        <v>5080000</v>
       </c>
       <c r="E83" s="73">
         <f>E71+C83-D83</f>
@@ -3184,7 +3193,7 @@
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3220,7 +3229,7 @@
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
       <c r="A2" s="147" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="148"/>
       <c r="C2" s="148"/>
@@ -3309,7 +3318,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="107">
-        <v>5082262.9850000013</v>
+        <v>4849439.18</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="99"/>
@@ -3349,7 +3358,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="29">
-        <v>115732.54000000001</v>
+        <v>121506.02000000002</v>
       </c>
       <c r="C5" s="80"/>
       <c r="D5" s="125" t="s">
@@ -3397,14 +3406,14 @@
       </c>
       <c r="B6" s="29">
         <f>B4+B5</f>
-        <v>7115732.54</v>
+        <v>7121506.0199999996</v>
       </c>
       <c r="C6" s="79"/>
       <c r="D6" s="103" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="108">
-        <v>680000</v>
+        <v>275000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="99"/>
@@ -3451,7 +3460,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>1509516</v>
+        <v>1473551</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3491,7 +3500,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="29">
-        <v>16652</v>
+        <v>17242</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="125" t="s">
@@ -3540,10 +3549,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="20"/>
       <c r="D9" s="19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="107">
-        <v>-180698.44500000123</v>
+        <v>498273.83999999985</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -3582,7 +3591,7 @@
       </c>
       <c r="B10" s="48">
         <f>B5-B8-B9</f>
-        <v>99080.540000000008</v>
+        <v>104264.02000000002</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="125"/>
@@ -3706,7 +3715,7 @@
       </c>
       <c r="B13" s="31">
         <f>B6-B8+B11-B12-B9</f>
-        <v>7099080.54</v>
+        <v>7104264.0199999996</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26" t="s">
@@ -3714,7 +3723,7 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>7099080.54</v>
+        <v>7104264.0199999996</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="88">
@@ -3939,7 +3948,7 @@
         <v>23</v>
       </c>
       <c r="E18" s="115">
-        <v>356810</v>
+        <v>316810</v>
       </c>
       <c r="G18" s="101"/>
       <c r="H18" s="100"/>
@@ -4024,14 +4033,14 @@
         <v>27</v>
       </c>
       <c r="B20" s="132">
-        <v>19000</v>
+        <v>20040</v>
       </c>
       <c r="C20" s="133"/>
       <c r="D20" s="134" t="s">
         <v>38</v>
       </c>
       <c r="E20" s="135">
-        <v>20000</v>
+        <v>10000</v>
       </c>
       <c r="G20" s="101"/>
       <c r="H20" s="102"/>
